--- a/General/metadata/Columns.xlsx
+++ b/General/metadata/Columns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\PycharmProjects\ABCD\General\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A712C2F1-34CE-46CA-8C09-800B9B726573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54ED6C7-0D37-4705-B041-F2DCAA14927B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -33,106 +33,103 @@
     <t>Name</t>
   </si>
   <si>
-    <t>"Timestamp"</t>
-  </si>
-  <si>
-    <t>"Email"</t>
-  </si>
-  <si>
-    <t>"Name"</t>
-  </si>
-  <si>
-    <t>"Status"</t>
-  </si>
-  <si>
-    <t>"Location"</t>
-  </si>
-  <si>
-    <t>"Availability"</t>
-  </si>
-  <si>
-    <t>"Games"</t>
-  </si>
-  <si>
-    <t>"Game_Types"</t>
-  </si>
-  <si>
-    <t>"Max_Hours"</t>
-  </si>
-  <si>
-    <t>"Commitment"</t>
-  </si>
-  <si>
-    <t>"Guest_Games"</t>
-  </si>
-  <si>
-    <t>"Meals"</t>
-  </si>
-  <si>
-    <t>"Allergies"</t>
-  </si>
-  <si>
-    <t>"Guest_Food"</t>
-  </si>
-  <si>
-    <t>"Earliest_Invite"</t>
-  </si>
-  <si>
-    <t>"Latest_Invite"</t>
-  </si>
-  <si>
-    <t>"Platforms"</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
-    <t>"Email Address"</t>
-  </si>
-  <si>
-    <t>"What is your name?"</t>
-  </si>
-  <si>
-    <t>"You are currently in my tabletop gaming group. What would you like your status to be?"</t>
-  </si>
-  <si>
-    <t>"Where would you be willing to play games?"</t>
-  </si>
-  <si>
-    <t>"What times are you possibly available to play games?"</t>
-  </si>
-  <si>
-    <t>"Which of my games are you interested in playing?"</t>
-  </si>
-  <si>
-    <t>"What types of games do you enjoy playing?"</t>
-  </si>
-  <si>
-    <t>"What is the maximum number of hours you are willing to play a game in one sitting?"</t>
-  </si>
-  <si>
-    <t>"Would you be willing to partake in a game commitment over multiple days?"</t>
-  </si>
-  <si>
-    <t>"Are there games that you own and know how to play that you would enjoy bringing for game events? If so, which games would you enjoy bringing?"</t>
-  </si>
-  <si>
-    <t>"Which of my meals would you be willing to eat at events?"</t>
-  </si>
-  <si>
-    <t>"What are your food allergies and restrictions?"</t>
-  </si>
-  <si>
-    <t>"What food and/or drinks would you be willing to bring to gaming events?"</t>
-  </si>
-  <si>
-    <t>"What is the earliest time you would like to receive invitations to game events?"</t>
-  </si>
-  <si>
-    <t>"What is the latest time you would like to receive invitations to game events?"</t>
-  </si>
-  <si>
-    <t>"Which of these group communication platforms would you be willing to use?"</t>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Games</t>
+  </si>
+  <si>
+    <t>Game_Types</t>
+  </si>
+  <si>
+    <t>Max_Hours</t>
+  </si>
+  <si>
+    <t>Commitment</t>
+  </si>
+  <si>
+    <t>Guest_Games</t>
+  </si>
+  <si>
+    <t>Meals</t>
+  </si>
+  <si>
+    <t>Allergies</t>
+  </si>
+  <si>
+    <t>Guest_Food</t>
+  </si>
+  <si>
+    <t>Earliest_Invite</t>
+  </si>
+  <si>
+    <t>Latest_Invite</t>
+  </si>
+  <si>
+    <t>Platforms</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>What is your name?</t>
+  </si>
+  <si>
+    <t>You are currently in my tabletop gaming group. What would you like your status to be?</t>
+  </si>
+  <si>
+    <t>Where would you be willing to play games?</t>
+  </si>
+  <si>
+    <t>What times are you possibly available to play games?</t>
+  </si>
+  <si>
+    <t>Which of my games are you interested in playing?</t>
+  </si>
+  <si>
+    <t>What types of games do you enjoy playing?</t>
+  </si>
+  <si>
+    <t>What is the maximum number of hours you are willing to play a game in one sitting?</t>
+  </si>
+  <si>
+    <t>Would you be willing to partake in a game commitment over multiple days?</t>
+  </si>
+  <si>
+    <t>Are there games that you own and know how to play that you would enjoy bringing for game events? If so, which games would you enjoy bringing?</t>
+  </si>
+  <si>
+    <t>Which of my meals would you be willing to eat at events?</t>
+  </si>
+  <si>
+    <t>What are your food allergies and restrictions?</t>
+  </si>
+  <si>
+    <t>What food and/or drinks would you be willing to bring to gaming events?</t>
+  </si>
+  <si>
+    <t>What is the earliest time you would like to receive invitations to game events?</t>
+  </si>
+  <si>
+    <t>What is the latest time you would like to receive invitations to game events?</t>
+  </si>
+  <si>
+    <t>Which of these group communication platforms would you be willing to use?</t>
   </si>
 </sst>
 </file>
@@ -453,13 +450,13 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -470,7 +467,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,10 +475,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -500,10 +497,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -514,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -525,7 +522,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -536,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -547,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -558,7 +555,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -569,7 +566,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -580,7 +577,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -591,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -602,7 +599,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -613,7 +610,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -624,7 +621,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -635,7 +632,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -646,7 +643,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -657,7 +654,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
